--- a/data_voor_swing/gebiedsdefinities/gewest.xlsx
+++ b/data_voor_swing/gebiedsdefinities/gewest.xlsx
@@ -455,12 +455,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gewest onbekend</t>
+          <t>Buiten Vlaanderen en Brussel</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gewest onbekend</t>
+          <t>Buiten Vlaanderen en Brussel</t>
         </is>
       </c>
     </row>

--- a/data_voor_swing/gebiedsdefinities/gewest.xlsx
+++ b/data_voor_swing/gebiedsdefinities/gewest.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,14 +451,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="23">
+        <v>99993</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Niet te lokaliseren</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Niet te lokaliseren</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="0" outlineLevel="0">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23">
         <v>99999</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Buiten Vlaanderen en Brussel</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Buiten Vlaanderen en Brussel</t>
         </is>
